--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F8" s="3">
         <v>58700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>58900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>57100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>56300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>34200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>32400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>32000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>30900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>29000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>27500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>26500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,31 +1052,37 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G15" s="3">
         <v>-1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>-700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-600</v>
       </c>
       <c r="K15" s="3">
         <v>-600</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F17" s="3">
         <v>16400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F18" s="3">
         <v>42300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>44100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>43600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>42900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>27200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>25500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>20100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>22800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-26200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-27800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-26700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-17200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-18100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-17100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-17700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-16200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-15200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-14700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F21" s="3">
         <v>17100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>19900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>17700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>8200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>8400</v>
       </c>
       <c r="P21" s="3">
         <v>8200</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F23" s="3">
         <v>15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>17900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>15800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>7600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>7800</v>
       </c>
       <c r="P23" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R23" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
         <v>3100</v>
       </c>
       <c r="G24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,41 +1689,47 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F32" s="3">
         <v>27200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>26200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>27800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>26700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>17200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>18100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>17100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>17700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>16200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>15200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>14700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F33" s="3">
         <v>12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F35" s="3">
         <v>12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>213300</v>
+      </c>
+      <c r="F41" s="3">
         <v>246300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>170900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>170000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>118800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>145200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>153500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>143200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>133100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>140300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>142000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>136400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>94100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>139100</v>
+      </c>
+      <c r="F42" s="3">
         <v>68400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>70600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>103200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>161100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>58100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>63900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>61000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>61800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>64900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>62200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>67600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>61200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F48" s="3">
         <v>67200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>59700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>60300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>41700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>19000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>245500</v>
+      </c>
+      <c r="F49" s="3">
         <v>246700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>247900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>249100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>249700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>43100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>43200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>43400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5002400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4992700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4905800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4794200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4768800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4655200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3035500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2966400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2886500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2860200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2813400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2724700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2592300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2450900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2974,37 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>15700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +3074,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>183300</v>
+      </c>
+      <c r="F61" s="3">
         <v>267300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>196000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>251000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>274400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>260400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>324300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>281300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>331200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>216800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>319800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>209800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>209800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4295800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4282800</v>
+      </c>
+      <c r="F66" s="3">
         <v>4199500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4089500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4065000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3952300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2707400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2646500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2574500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2553400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2510700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2426300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2303200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2171100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>163400</v>
+      </c>
+      <c r="F72" s="3">
         <v>149400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>137300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>123100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>112100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>99000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>90100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>82500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>74900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>71700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>68700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>63300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>57300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>706600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>709900</v>
+      </c>
+      <c r="F76" s="3">
         <v>706300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>704700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>703800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>703000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>328100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>319900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>312000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>306900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>302700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>298500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>289100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>279800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F81" s="3">
         <v>12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4023,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>19600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>11400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1600</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-172200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-47500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-50500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-91600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>143100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-229600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>80000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-59300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-90300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-126700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-101600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-83400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4613,15 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>77400</v>
+      </c>
+      <c r="F100" s="3">
         <v>94600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>61900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-79200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>56800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>72500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>42700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>84700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>122400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>134500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-171400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F102" s="3">
         <v>68000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-26200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>77500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-158500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>159900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>42000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-83000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E8" s="3">
         <v>57500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,25 +1090,25 @@
         <v>-1900</v>
       </c>
       <c r="E15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F15" s="3">
         <v>-2000</v>
       </c>
       <c r="G15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H15" s="3">
         <v>-1900</v>
       </c>
       <c r="I15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J15" s="3">
         <v>-2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-600</v>
       </c>
       <c r="L15" s="3">
         <v>-600</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E18" s="3">
         <v>45100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-40700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E21" s="3">
         <v>6200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>9800</v>
       </c>
       <c r="L21" s="3">
         <v>9800</v>
       </c>
       <c r="M21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N21" s="3">
         <v>8400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E32" s="3">
         <v>40700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E41" s="3">
         <v>156700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>213300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>246300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>170900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>145200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>153500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>133100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>140300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>136400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E42" s="3">
         <v>31000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>139100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>103200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>161100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>58100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>63900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>67600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66800</v>
+        <v>67200</v>
       </c>
       <c r="E48" s="3">
         <v>66800</v>
       </c>
       <c r="F48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="G48" s="3">
         <v>67200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>19000</v>
       </c>
       <c r="K48" s="3">
         <v>19000</v>
       </c>
       <c r="L48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E49" s="3">
         <v>244500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>245500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>246700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>247900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>249100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>249700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>43100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5836900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5002400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4992700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4905800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4794200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4768800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4655200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3035500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2966400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2886500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2860200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2813400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2724700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2592300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2450900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,34 +3114,37 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>363600</v>
+      </c>
+      <c r="E61" s="3">
         <v>298400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>267300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>196000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>251000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>274400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>260400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>324300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>281300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>331200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>216800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>319800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>209800</v>
       </c>
       <c r="Q61" s="3">
         <v>209800</v>
       </c>
       <c r="R61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="S61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4295800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4282800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4199500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4089500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4065000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3952300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2707400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2646500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2574500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2553400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2510700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2426300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2303200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2171100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E72" s="3">
         <v>164900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>163400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>149400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>137300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>123100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>112100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>99000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>90100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>71700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>68700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>63300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>736100</v>
+      </c>
+      <c r="E76" s="3">
         <v>706600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>709900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>706300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>704700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>703800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>703000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>328100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>319900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>312000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>306900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>302700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>298500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>289100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>279800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,25 +4233,25 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
       </c>
       <c r="I83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
       </c>
       <c r="O91" s="3">
         <v>-500</v>
       </c>
       <c r="P91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-731700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-172200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>143100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-229600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>80000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-126700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,7 +4858,7 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>810500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>94600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>61900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-79200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>84700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>122400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>134500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-171400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>68000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>77500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-158500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>159900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>42000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-83000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E8" s="3">
         <v>60500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,25 +1116,25 @@
         <v>-1900</v>
       </c>
       <c r="F15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G15" s="3">
         <v>-2000</v>
       </c>
       <c r="H15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I15" s="3">
         <v>-1900</v>
       </c>
       <c r="J15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-600</v>
       </c>
       <c r="M15" s="3">
         <v>-600</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E18" s="3">
         <v>50900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-40700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E21" s="3">
         <v>13800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>9800</v>
       </c>
       <c r="M21" s="3">
         <v>9800</v>
       </c>
       <c r="N21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O21" s="3">
         <v>8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>9900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E32" s="3">
         <v>38900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>40700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E41" s="3">
         <v>237600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>213300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>246300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>118800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>153500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>133100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>136400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E42" s="3">
         <v>43700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>139100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>103200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>161100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>63900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>67600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E48" s="3">
         <v>67200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>66800</v>
       </c>
       <c r="F48" s="3">
         <v>66800</v>
       </c>
       <c r="G48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="H48" s="3">
         <v>67200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>19000</v>
       </c>
       <c r="L48" s="3">
         <v>19000</v>
       </c>
       <c r="M48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E49" s="3">
         <v>243500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>245500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>246700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>247900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>249100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>249700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5967800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5836900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5002400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4992700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4905800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4794200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4768800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4655200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3035500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2966400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2886500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2860200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2813400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2724700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2592300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2450900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,37 +3251,40 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E61" s="3">
         <v>363600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>298400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>267300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>196000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>251000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>274400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>260400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>324300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>281300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>331200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>216800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>319800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>209800</v>
       </c>
       <c r="R61" s="3">
         <v>209800</v>
       </c>
       <c r="S61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="T61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5214700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4295800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4282800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4199500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4089500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4065000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3952300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2707400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2646500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2574500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2553400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2510700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2426300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2303200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2171100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E72" s="3">
         <v>172700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>164900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>163400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>149400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>137300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>123100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>112100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>99000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>90100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>82500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>71700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>68700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>63300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>57300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>753100</v>
+      </c>
+      <c r="E76" s="3">
         <v>736100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>706600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>709900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>706300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>704700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>703800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>703000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>328100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>319900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>312000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>306900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>302700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>298500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>289100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>279800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,25 +4435,25 @@
         <v>1900</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
         <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>1900</v>
       </c>
       <c r="J83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E89" s="3">
         <v>12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
       <c r="M91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-500</v>
       </c>
       <c r="P91" s="3">
         <v>-500</v>
       </c>
       <c r="Q91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-731700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-172200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>143100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-229600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>80000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-90300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-126700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-101600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,7 +5095,7 @@
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E100" s="3">
         <v>810500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>77400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>94600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>61900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-79200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>42700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>84700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>134500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E102" s="3">
         <v>91500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-171400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>68000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-158500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>159900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>42000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-83000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E8" s="3">
         <v>60800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,13 +1123,16 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E15" s="3">
         <v>-1900</v>
@@ -1119,25 +1141,25 @@
         <v>-1900</v>
       </c>
       <c r="G15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H15" s="3">
         <v>-2000</v>
       </c>
       <c r="I15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J15" s="3">
         <v>-1900</v>
       </c>
       <c r="K15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L15" s="3">
         <v>-2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-600</v>
       </c>
       <c r="N15" s="3">
         <v>-600</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E18" s="3">
         <v>51900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-32100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-38900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-40700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>21800</v>
       </c>
       <c r="E21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F21" s="3">
         <v>13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>9800</v>
       </c>
       <c r="N21" s="3">
         <v>9800</v>
       </c>
       <c r="O21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="P21" s="3">
         <v>8400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,111 +1532,117 @@
         <v>19800</v>
       </c>
       <c r="E23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E32" s="3">
         <v>32100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>38900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>40700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E41" s="3">
         <v>327400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>237600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>156700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>213300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>246300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>170000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>145200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>153500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>133100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>140300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E42" s="3">
         <v>29400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>139100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>103200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>161100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>63900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>64900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>62200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>67600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>61200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E48" s="3">
         <v>69900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>66800</v>
       </c>
       <c r="G48" s="3">
         <v>66800</v>
       </c>
       <c r="H48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="I48" s="3">
         <v>67200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>19000</v>
       </c>
       <c r="M48" s="3">
         <v>19000</v>
       </c>
       <c r="N48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O48" s="3">
         <v>18600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E49" s="3">
         <v>242500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>243500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>245500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>246700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>247900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>249100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6050100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5967800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5836900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5002400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4992700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4905800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4794200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4768800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4655200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3035500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2966400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2886500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2860200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2813400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2724700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2592300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2450900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,40 +3387,43 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3505,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E61" s="3">
         <v>263700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>363600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>298400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>267300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>196000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>251000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>274400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>260400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>324300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>281300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>331200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>216800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>319800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>209800</v>
       </c>
       <c r="S61" s="3">
         <v>209800</v>
       </c>
       <c r="T61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="U61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5291500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5214700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4295800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4282800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4199500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4089500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4065000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3952300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2707400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2646500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2574500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2553400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2510700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2426300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2303200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2171100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E72" s="3">
         <v>186900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>172700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>164900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>163400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>149400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>137300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>123100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>112100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>99000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>90100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>82500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>71700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>68700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>63300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>57300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>758700</v>
+      </c>
+      <c r="E76" s="3">
         <v>753100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>736100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>706600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>709900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>706300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>704700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>703800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>703000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>328100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>319900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>312000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>306900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>302700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>298500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>289100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>279800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
@@ -4438,25 +4636,25 @@
         <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>2000</v>
       </c>
       <c r="I83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
       </c>
       <c r="K83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E89" s="3">
         <v>14500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
       <c r="N91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-500</v>
       </c>
       <c r="Q91" s="3">
         <v>-500</v>
       </c>
       <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-731700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-172200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>143100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-229600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>80000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-126700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-101600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-83400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5315,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
@@ -5098,7 +5331,7 @@
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E100" s="3">
         <v>115000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>810500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>94600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>61900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-79200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>42700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>84700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>122400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>134500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E102" s="3">
         <v>80700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-171400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>68000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-158500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>159900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-83000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>63000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>58900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,16 +1146,19 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1900</v>
       </c>
       <c r="F15" s="3">
         <v>-1900</v>
@@ -1144,25 +1167,25 @@
         <v>-1900</v>
       </c>
       <c r="H15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I15" s="3">
         <v>-2000</v>
       </c>
       <c r="J15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K15" s="3">
         <v>-1900</v>
       </c>
       <c r="L15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M15" s="3">
         <v>-2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-600</v>
       </c>
       <c r="O15" s="3">
         <v>-600</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E18" s="3">
         <v>54900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>51900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-35100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-38900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-40700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21800</v>
+        <v>23700</v>
       </c>
       <c r="E21" s="3">
         <v>21800</v>
       </c>
       <c r="F21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G21" s="3">
         <v>13800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>9800</v>
       </c>
       <c r="O21" s="3">
         <v>9800</v>
       </c>
       <c r="P21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q21" s="3">
         <v>8400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19800</v>
+        <v>21900</v>
       </c>
       <c r="E23" s="3">
         <v>19800</v>
       </c>
       <c r="F23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G23" s="3">
         <v>12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,58 +1637,61 @@
         <v>3900</v>
       </c>
       <c r="E24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E32" s="3">
         <v>35100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>38900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>40700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E41" s="3">
         <v>122900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>327400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>237600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>156700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>213300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>246300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>170900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>145200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>153500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>133100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>140300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>142000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>94100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>490200</v>
+      </c>
+      <c r="E42" s="3">
         <v>307600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>139100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>68400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>161100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>63900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>64900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>62200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>67600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>61200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E48" s="3">
         <v>70700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>66800</v>
       </c>
       <c r="H48" s="3">
         <v>66800</v>
       </c>
       <c r="I48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="J48" s="3">
         <v>67200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>19000</v>
       </c>
       <c r="N48" s="3">
         <v>19000</v>
       </c>
       <c r="O48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P48" s="3">
         <v>18600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E49" s="3">
         <v>241600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>242500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>243500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>244500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>246700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>247900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6431000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6050100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5967800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5836900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5002400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4992700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4905800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4794200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4768800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4655200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3035500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2966400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2886500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2860200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2813400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2724700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2592300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2450900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,43 +3524,46 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,67 +3648,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E61" s="3">
         <v>263800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>263700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>363600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>298400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>267300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>196000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>251000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>274400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>260400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>324300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>281300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>331200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>216800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>319800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>209800</v>
       </c>
       <c r="T61" s="3">
         <v>209800</v>
       </c>
       <c r="U61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="V61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5670500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5291500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5214700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4295800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4282800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4199500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4089500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4065000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3952300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2707400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2646500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2574500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2553400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2510700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2426300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2303200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2171100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E72" s="3">
         <v>195200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>186900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>172700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>163400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>149400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>137300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>123100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>112100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>99000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>90100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>71700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>68700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>63300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>57300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>760500</v>
+      </c>
+      <c r="E76" s="3">
         <v>758700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>753100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>736100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>706600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>709900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>706300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>704700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>703800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>703000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>328100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>319900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>312000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>306900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>302700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>298500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>289100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>279800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
@@ -4639,25 +4838,25 @@
         <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
       </c>
       <c r="J83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
       </c>
       <c r="L83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>600</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E89" s="3">
         <v>23400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-400</v>
       </c>
       <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-500</v>
       </c>
       <c r="R91" s="3">
         <v>-500</v>
       </c>
       <c r="S91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-190700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-731700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-172200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>143100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-229600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>80000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-126700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-83400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,16 +5549,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-2000</v>
@@ -5334,7 +5568,7 @@
         <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E100" s="3">
         <v>60700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>115000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>810500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>94600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-79200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>84700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>122400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>134500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E102" s="3">
         <v>75600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>80700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>91500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-171400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>45600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-158500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>159900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-83000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,61 +766,64 @@
         <v>62800</v>
       </c>
       <c r="E8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F8" s="3">
         <v>63000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>60500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>58700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,10 +1181,10 @@
         <v>-1900</v>
       </c>
       <c r="E15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-1900</v>
       </c>
       <c r="G15" s="3">
         <v>-1900</v>
@@ -1170,25 +1193,25 @@
         <v>-1900</v>
       </c>
       <c r="I15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J15" s="3">
         <v>-2000</v>
       </c>
       <c r="K15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="L15" s="3">
         <v>-1900</v>
       </c>
       <c r="M15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N15" s="3">
         <v>-2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-600</v>
       </c>
       <c r="P15" s="3">
         <v>-600</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E18" s="3">
         <v>55700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>51900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-32100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-38900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-40700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E21" s="3">
         <v>23700</v>
-      </c>
-      <c r="E21" s="3">
-        <v>21800</v>
       </c>
       <c r="F21" s="3">
         <v>21800</v>
       </c>
       <c r="G21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="H21" s="3">
         <v>13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>9800</v>
       </c>
       <c r="P21" s="3">
         <v>9800</v>
       </c>
       <c r="Q21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="R21" s="3">
         <v>8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E23" s="3">
         <v>21900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>19800</v>
       </c>
       <c r="F23" s="3">
         <v>19800</v>
       </c>
       <c r="G23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H23" s="3">
         <v>12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
         <v>3900</v>
       </c>
       <c r="F24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E32" s="3">
         <v>33800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>32100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>38900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>40700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E41" s="3">
         <v>141900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>327400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>156700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>213300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>246300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>118800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>145200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>133100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>140300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>142000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>136400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>94100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>573100</v>
+      </c>
+      <c r="E42" s="3">
         <v>490200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>307600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>139100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>68400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>103200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>161100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>63900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>64900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>62200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>67600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>61200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E48" s="3">
         <v>66100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>66800</v>
       </c>
       <c r="I48" s="3">
         <v>66800</v>
       </c>
       <c r="J48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K48" s="3">
         <v>67200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>19000</v>
       </c>
       <c r="O48" s="3">
         <v>19000</v>
       </c>
       <c r="P48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>18600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E49" s="3">
         <v>240800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>242500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>243500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>244500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>245500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>246700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>247900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6508700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6431000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6050100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5967800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5836900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5002400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4992700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4905800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4794200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4768800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4655200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3035500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2966400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2886500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2860200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2813400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2724700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2592300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2450900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,46 +3661,49 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,70 +3791,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E61" s="3">
         <v>256000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>263800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>263700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>363600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>298400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>183300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>267300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>196000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>251000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>274400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>260400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>324300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>281300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>331200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>216800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>319800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>209800</v>
       </c>
       <c r="U61" s="3">
         <v>209800</v>
       </c>
       <c r="V61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="W61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5719500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5670500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5291500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5214700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4295800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4282800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4199500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4089500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4065000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3952300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2707400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2646500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2574500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2553400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2510700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2426300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2303200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2171100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>231300</v>
+      </c>
+      <c r="E72" s="3">
         <v>210800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>195200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>186900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>172700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>164900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>163400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>149400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>137300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>123100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>112100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>99000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>90100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>82500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>71700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>68700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>63300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>57300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>789200</v>
+      </c>
+      <c r="E76" s="3">
         <v>760500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>758700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>753100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>736100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>706600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>709900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>706300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>704700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>703800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>703000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>328100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>319900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>312000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>306900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>302700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>298500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>289100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>279800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,10 +5028,10 @@
         <v>1900</v>
       </c>
       <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1900</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
@@ -4841,25 +5040,25 @@
         <v>1900</v>
       </c>
       <c r="I83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J83" s="3">
         <v>2000</v>
       </c>
       <c r="K83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>1900</v>
       </c>
       <c r="M83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>600</v>
       </c>
       <c r="P83" s="3">
         <v>600</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-400</v>
       </c>
       <c r="P91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-500</v>
       </c>
       <c r="S91" s="3">
         <v>-500</v>
       </c>
       <c r="T91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-190700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-731700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-172200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-91600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>143100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-229600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>80000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-126700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-101600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-83400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,10 +5793,10 @@
         <v>-2400</v>
       </c>
       <c r="E96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-2000</v>
@@ -5571,7 +5805,7 @@
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E100" s="3">
         <v>371000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>60700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>115000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>810500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>77400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>94600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-79200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>84700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>122400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>134500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E102" s="3">
         <v>201600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>75600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>80700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>91500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-171400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>45600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-158500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>159900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>42000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-83000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62800</v>
+        <v>63900</v>
       </c>
       <c r="E8" s="3">
         <v>62800</v>
       </c>
       <c r="F8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="G8" s="3">
         <v>63000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>60800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>60500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>58100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>58900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>57100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,10 +1207,10 @@
         <v>-1900</v>
       </c>
       <c r="F15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-1900</v>
       </c>
       <c r="H15" s="3">
         <v>-1900</v>
@@ -1196,25 +1219,25 @@
         <v>-1900</v>
       </c>
       <c r="J15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K15" s="3">
         <v>-2000</v>
       </c>
       <c r="L15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="M15" s="3">
         <v>-1900</v>
       </c>
       <c r="N15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O15" s="3">
         <v>-2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-600</v>
       </c>
       <c r="Q15" s="3">
         <v>-600</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E18" s="3">
         <v>56600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>55700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>51900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-28600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-33800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-32100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-38900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-40700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E21" s="3">
         <v>29800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>21800</v>
       </c>
       <c r="G21" s="3">
         <v>21800</v>
       </c>
       <c r="H21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I21" s="3">
         <v>13800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>9800</v>
       </c>
       <c r="Q21" s="3">
         <v>9800</v>
       </c>
       <c r="R21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S21" s="3">
         <v>8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E23" s="3">
         <v>28000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>19800</v>
       </c>
       <c r="G23" s="3">
         <v>19800</v>
       </c>
       <c r="H23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I23" s="3">
         <v>12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3900</v>
       </c>
       <c r="F24" s="3">
         <v>3900</v>
       </c>
       <c r="G24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E26" s="3">
         <v>22900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>22900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E32" s="3">
         <v>28600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>33800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>32100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>38900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>40700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>22900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>22900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E41" s="3">
         <v>146400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>141900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>327400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>237600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>156700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>213300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>246300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>118800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>153500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>143200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>133100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>140300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>142000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>136400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>94100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>888200</v>
+      </c>
+      <c r="E42" s="3">
         <v>573100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>490200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>307600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>43700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>139100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>68400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>103200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>161100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>58100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>63900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>64900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>62200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>67600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>61200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E48" s="3">
         <v>65400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>66800</v>
       </c>
       <c r="J48" s="3">
         <v>66800</v>
       </c>
       <c r="K48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="L48" s="3">
         <v>67200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>19000</v>
       </c>
       <c r="P48" s="3">
         <v>19000</v>
       </c>
       <c r="Q48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R48" s="3">
         <v>18600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E49" s="3">
         <v>239900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>240800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>243500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>244500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>245500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>246700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>247900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6759800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6508700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6431000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6050100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5967800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5836900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5002400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4992700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4905800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4794200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4768800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4655200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3035500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2966400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2886500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2860200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2813400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2724700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2592300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2450900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,49 +3798,52 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,73 +3934,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E61" s="3">
         <v>248500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>256000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>263800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>263700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>363600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>298400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>183300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>267300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>196000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>251000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>274400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>260400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>324300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>281300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>331200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>216800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>319800</v>
-      </c>
-      <c r="U61" s="3">
-        <v>209800</v>
       </c>
       <c r="V61" s="3">
         <v>209800</v>
       </c>
       <c r="W61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="X61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5961200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5719500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5670500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5291500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5214700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4295800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4282800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4199500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4089500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4065000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3952300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2707400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2646500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2574500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2553400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2510700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2426300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2303200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2171100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E72" s="3">
         <v>231300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>210800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>195200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>186900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>172700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>164900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>163400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>149400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>137300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>123100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>112100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>99000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>90100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>82500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>71700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>68700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>63300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>57300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>798600</v>
+      </c>
+      <c r="E76" s="3">
         <v>789200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>760500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>758700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>753100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>736100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>706600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>709900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>706300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>704700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>703800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>703000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>328100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>319900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>312000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>306900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>302700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>298500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>289100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>279800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>22900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,10 +5230,10 @@
         <v>1900</v>
       </c>
       <c r="F83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
@@ -5043,25 +5242,25 @@
         <v>1900</v>
       </c>
       <c r="J83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
       </c>
       <c r="L83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>1900</v>
       </c>
       <c r="N83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E89" s="3">
         <v>22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-400</v>
       </c>
       <c r="P91" s="3">
         <v>-400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-500</v>
       </c>
       <c r="T91" s="3">
         <v>-500</v>
       </c>
       <c r="U91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="E94" s="3">
         <v>14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-190700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-731700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-172200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>143100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-229600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>80000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-90300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-126700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-101600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-83400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,10 +6030,10 @@
         <v>-2400</v>
       </c>
       <c r="F96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2000</v>
       </c>
       <c r="H96" s="3">
         <v>-2000</v>
@@ -5808,7 +6042,7 @@
         <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E100" s="3">
         <v>49700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>371000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>60700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>115000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>810500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>77400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>94600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-79200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>72500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>84700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>122400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>134500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E102" s="3">
         <v>87000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>201600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>75600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>80700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-171400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>45600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-158500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>159900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>42000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-83000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E8" s="3">
         <v>63900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>62800</v>
       </c>
       <c r="F8" s="3">
         <v>62800</v>
       </c>
       <c r="G8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="H8" s="3">
         <v>63000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>60800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>58700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>57100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,10 +1232,10 @@
         <v>-1900</v>
       </c>
       <c r="G15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-1900</v>
       </c>
       <c r="I15" s="3">
         <v>-1900</v>
@@ -1222,25 +1244,25 @@
         <v>-1900</v>
       </c>
       <c r="K15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="L15" s="3">
         <v>-2000</v>
       </c>
       <c r="M15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="N15" s="3">
         <v>-1900</v>
       </c>
       <c r="O15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P15" s="3">
         <v>-2000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-600</v>
       </c>
       <c r="R15" s="3">
         <v>-600</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E18" s="3">
         <v>58200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>56600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>51900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-28600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-33800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-32100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-38900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-40700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E21" s="3">
         <v>25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>21800</v>
       </c>
       <c r="H21" s="3">
         <v>21800</v>
       </c>
       <c r="I21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J21" s="3">
         <v>13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>9800</v>
       </c>
       <c r="R21" s="3">
         <v>9800</v>
       </c>
       <c r="S21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="T21" s="3">
         <v>8400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E23" s="3">
         <v>23700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>19800</v>
       </c>
       <c r="H23" s="3">
         <v>19800</v>
       </c>
       <c r="I23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3900</v>
       </c>
       <c r="G24" s="3">
         <v>3900</v>
       </c>
       <c r="H24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>19100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E27" s="3">
         <v>19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E32" s="3">
         <v>34500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>28600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>33800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>32100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>38900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>40700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E33" s="3">
         <v>19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E35" s="3">
         <v>19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>141900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>327400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>237600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>156700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>213300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>118800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>153500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>143200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>133100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>140300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>142000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>136400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>94100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>742900</v>
+      </c>
+      <c r="E42" s="3">
         <v>888200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>573100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>490200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>307600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>43700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>139100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>68400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>103200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>161100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>58100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>63900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>61800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>64900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>62200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>67600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>61200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E48" s="3">
         <v>65100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>69900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>66800</v>
       </c>
       <c r="K48" s="3">
         <v>66800</v>
       </c>
       <c r="L48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="M48" s="3">
         <v>67200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>19000</v>
       </c>
       <c r="Q48" s="3">
         <v>19000</v>
       </c>
       <c r="R48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S48" s="3">
         <v>18600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>238300</v>
+      </c>
+      <c r="E49" s="3">
         <v>239100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>239900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>240800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>241600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>243500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>244500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>245500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>246700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>247900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>43400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7105000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6759800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6508700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6431000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6050100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5967800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5836900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5002400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4992700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4905800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4794200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4768800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4655200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3035500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2966400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2886500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2860200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2813400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2724700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2592300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2450900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,52 +3934,55 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,76 +4076,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E61" s="3">
         <v>248700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>248500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>256000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>263800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>263700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>363600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>298400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>267300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>196000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>251000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>274400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>260400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>324300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>281300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>331200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>216800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>319800</v>
-      </c>
-      <c r="V61" s="3">
-        <v>209800</v>
       </c>
       <c r="W61" s="3">
         <v>209800</v>
       </c>
       <c r="X61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="Y61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6288500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5961200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5719500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5670500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5291500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5214700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4295800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4282800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4199500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4089500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4065000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3952300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2707400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2646500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2574500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2553400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2510700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2426300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2303200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2171100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E72" s="3">
         <v>248000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>210800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>195200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>186900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>172700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>164900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>163400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>149400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>137300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>123100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>112100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>99000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>90100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>71700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>68700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>63300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>57300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>816500</v>
+      </c>
+      <c r="E76" s="3">
         <v>798600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>789200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>760500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>758700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>753100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>736100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>706600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>709900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>706300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>704700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>703800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>703000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>328100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>319900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>312000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>306900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>302700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>298500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>289100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>279800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E81" s="3">
         <v>19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,10 +5431,10 @@
         <v>1900</v>
       </c>
       <c r="G83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1900</v>
       </c>
       <c r="I83" s="3">
         <v>1900</v>
@@ -5245,25 +5443,25 @@
         <v>1900</v>
       </c>
       <c r="K83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
       <c r="M83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>1900</v>
       </c>
       <c r="O83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>600</v>
       </c>
       <c r="R83" s="3">
         <v>600</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>37700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-400</v>
       </c>
       <c r="Q91" s="3">
         <v>-400</v>
       </c>
       <c r="R91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-500</v>
       </c>
       <c r="U91" s="3">
         <v>-500</v>
       </c>
       <c r="V91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-502200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-190700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-731700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-172200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>143100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-229600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>80000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-90300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-126700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-101600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-83400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6033,10 +6266,10 @@
         <v>-2400</v>
       </c>
       <c r="G96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-2000</v>
@@ -6045,7 +6278,7 @@
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E100" s="3">
         <v>231200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>371000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>115000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>810500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>94600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-79200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>72500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>42700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>84700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>122400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>134500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="E102" s="3">
         <v>192500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>201600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>75600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>80700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-171400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-158500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>159900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>42000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-83000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E8" s="3">
         <v>63600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>62800</v>
       </c>
       <c r="G8" s="3">
         <v>62800</v>
       </c>
       <c r="H8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I8" s="3">
         <v>63000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>58100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>57100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,13 +1237,16 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E15" s="3">
         <v>-1900</v>
@@ -1235,10 +1258,10 @@
         <v>-1900</v>
       </c>
       <c r="H15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-1900</v>
       </c>
       <c r="J15" s="3">
         <v>-1900</v>
@@ -1247,25 +1270,25 @@
         <v>-1900</v>
       </c>
       <c r="L15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="M15" s="3">
         <v>-2000</v>
       </c>
       <c r="N15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="O15" s="3">
         <v>-1900</v>
       </c>
       <c r="P15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-600</v>
       </c>
       <c r="S15" s="3">
         <v>-600</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E18" s="3">
         <v>58100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>54900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>51900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-31700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-32100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-38900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E21" s="3">
         <v>28300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>21800</v>
       </c>
       <c r="I21" s="3">
         <v>21800</v>
       </c>
       <c r="J21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K21" s="3">
         <v>13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>9800</v>
       </c>
       <c r="S21" s="3">
         <v>9800</v>
       </c>
       <c r="T21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="U21" s="3">
         <v>8400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E23" s="3">
         <v>26400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>19800</v>
       </c>
       <c r="I23" s="3">
         <v>19800</v>
       </c>
       <c r="J23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K23" s="3">
         <v>12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3900</v>
       </c>
       <c r="H24" s="3">
         <v>3900</v>
       </c>
       <c r="I24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E27" s="3">
         <v>21600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,17 +2216,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2600</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E32" s="3">
         <v>31700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>32100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>38900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>14700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E33" s="3">
         <v>21600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E35" s="3">
         <v>21600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>141900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>327400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>237600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>213300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>246300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>118800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>153500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>133100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>140300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>142000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>136400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>94100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>682100</v>
+      </c>
+      <c r="E42" s="3">
         <v>742900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>888200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>573100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>490200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>307600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>43700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>139100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>68400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>103200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>161100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>63900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>61000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>61800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>64900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>62200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>67600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>61200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E48" s="3">
         <v>63700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>69900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>66800</v>
       </c>
       <c r="L48" s="3">
         <v>66800</v>
       </c>
       <c r="M48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="N48" s="3">
         <v>67200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>19000</v>
       </c>
       <c r="R48" s="3">
         <v>19000</v>
       </c>
       <c r="S48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="T48" s="3">
         <v>18600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E49" s="3">
         <v>238300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>239100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>239900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>240800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>242500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>243500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>244500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>245500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>246700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>247900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>249700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>43200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>43400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7149400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7105000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6759800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6508700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6431000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6050100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5967800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5836900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5002400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4992700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4905800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4794200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4768800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4655200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3035500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2966400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2886500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2860200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2813400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2724700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2592300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2450900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,55 +4071,58 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,79 +4219,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E61" s="3">
         <v>198800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>248700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>248500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>256000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>263800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>263700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>363600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>298400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>183300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>267300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>196000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>251000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>274400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>260400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>324300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>281300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>331200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>216800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>319800</v>
-      </c>
-      <c r="W61" s="3">
-        <v>209800</v>
       </c>
       <c r="X61" s="3">
         <v>209800</v>
       </c>
       <c r="Y61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="Z61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6397400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6288500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5961200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5719500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5670500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5291500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5214700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4295800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4282800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4199500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4089500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4065000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3952300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2707400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2646500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2574500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2553400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2510700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2426300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2303200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2171100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>282900</v>
+      </c>
+      <c r="E72" s="3">
         <v>267100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>248000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>231300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>210800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>195200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>186900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>172700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>164900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>163400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>149400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>137300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>123100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>112100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>90100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>82500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>71700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>68700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>63300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>57300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>751900</v>
+      </c>
+      <c r="E76" s="3">
         <v>816500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>798600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>789200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>760500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>758700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>753100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>736100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>706600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>709900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>706300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>704700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>703800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>703000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>328100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>319900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>312000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>306900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>302700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>298500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>289100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>279800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E81" s="3">
         <v>21600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
@@ -5434,10 +5633,10 @@
         <v>1900</v>
       </c>
       <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1900</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
@@ -5446,25 +5645,25 @@
         <v>1900</v>
       </c>
       <c r="L83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M83" s="3">
         <v>2000</v>
       </c>
       <c r="N83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="O83" s="3">
         <v>1900</v>
       </c>
       <c r="P83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>600</v>
       </c>
       <c r="S83" s="3">
         <v>600</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>37700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-400</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
       <c r="S91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-500</v>
       </c>
       <c r="V91" s="3">
         <v>-500</v>
       </c>
       <c r="W91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-186600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-502200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-190700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-731700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-172200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>143100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-229600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>80000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-90300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-126700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-101600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-83400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,13 +6484,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2400</v>
+        <v>-2900</v>
       </c>
       <c r="E96" s="3">
         <v>-2400</v>
@@ -6269,10 +6503,10 @@
         <v>-2400</v>
       </c>
       <c r="H96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
@@ -6281,7 +6515,7 @@
         <v>-2000</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E100" s="3">
         <v>330200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>231200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>371000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>115000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>810500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>94600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>61900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>72500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>42700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>84700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>122400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>134500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-146300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>192500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>87000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>201600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>75600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>80700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-171400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>77500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-158500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>159900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>42000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-83000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ABTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>60300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>62800</v>
       </c>
       <c r="H8" s="3">
         <v>62800</v>
       </c>
       <c r="I8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="J8" s="3">
         <v>63000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>58900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>57100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>27500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1272,7 @@
         <v>-1800</v>
       </c>
       <c r="E15" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F15" s="3">
         <v>-1900</v>
@@ -1261,10 +1284,10 @@
         <v>-1900</v>
       </c>
       <c r="I15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-1900</v>
       </c>
       <c r="K15" s="3">
         <v>-1900</v>
@@ -1273,25 +1296,25 @@
         <v>-1900</v>
       </c>
       <c r="M15" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="N15" s="3">
         <v>-2000</v>
       </c>
       <c r="O15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="P15" s="3">
         <v>-1900</v>
       </c>
       <c r="Q15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R15" s="3">
         <v>-2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-600</v>
       </c>
       <c r="T15" s="3">
         <v>-600</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E18" s="3">
         <v>55200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>56600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>55700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>22500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-32300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-31700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-32100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-38900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E21" s="3">
         <v>24600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>21800</v>
       </c>
       <c r="J21" s="3">
         <v>21800</v>
       </c>
       <c r="K21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="L21" s="3">
         <v>13800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>9800</v>
       </c>
       <c r="T21" s="3">
         <v>9800</v>
       </c>
       <c r="U21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="V21" s="3">
         <v>8400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E23" s="3">
         <v>22900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>19800</v>
       </c>
       <c r="J23" s="3">
         <v>19800</v>
       </c>
       <c r="K23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L23" s="3">
         <v>12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3900</v>
       </c>
       <c r="I24" s="3">
         <v>3900</v>
       </c>
       <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E27" s="3">
         <v>18700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2600</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E32" s="3">
         <v>32300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>31700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>32100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>38900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>14700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E33" s="3">
         <v>18700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E35" s="3">
         <v>18700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>26600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>146400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>327400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>237600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>156700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>213300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>246300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>118800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>153500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>143200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>133100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>140300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>142000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>136400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>94100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>133100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E42" s="3">
         <v>682100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>742900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>888200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>573100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>490200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>307600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>139100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>68400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>70600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>103200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>161100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>58100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>63900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>61000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>61800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>64900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>62200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>67600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>61200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E48" s="3">
         <v>62200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>69900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>66800</v>
       </c>
       <c r="M48" s="3">
         <v>66800</v>
       </c>
       <c r="N48" s="3">
+        <v>66800</v>
+      </c>
+      <c r="O48" s="3">
         <v>67200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>41700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>19000</v>
       </c>
       <c r="S48" s="3">
         <v>19000</v>
       </c>
       <c r="T48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="U48" s="3">
         <v>18600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E49" s="3">
         <v>237500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>238300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>239100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>239900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>240800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>242500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>243500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>244500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>245500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>246700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>247900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>249100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>249700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>43100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>43200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>43400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6731800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7149400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7105000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6759800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6508700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6431000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6050100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5967800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5836900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5002400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4992700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4905800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4794200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4768800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4655200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3035500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2966400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2886500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2860200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2813400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2724700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2592300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2450900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2461900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,58 +4208,61 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,82 +4362,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E61" s="3">
         <v>198900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>198800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>248700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>256000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>263800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>263700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>363600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>298400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>183300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>267300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>196000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>251000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>274400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>260400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>324300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>281300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>331200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>216800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>319800</v>
-      </c>
-      <c r="X61" s="3">
-        <v>209800</v>
       </c>
       <c r="Y61" s="3">
         <v>209800</v>
       </c>
       <c r="Z61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="AA61" s="3">
         <v>209700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6026400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6397400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6288500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5961200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5719500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5670500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5291500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5214700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4295800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4282800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4199500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4089500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4065000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3952300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2707400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2646500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2574500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2553400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2510700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2426300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2303200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2171100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2180800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>296500</v>
+      </c>
+      <c r="E72" s="3">
         <v>282900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>267100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>248000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>231300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>210800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>195200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>186900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>172700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>164900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>163400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>149400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>137300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>123100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>112100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>99000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>90100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>82500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>74900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>71700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>68700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>63300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>57300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>705300</v>
+      </c>
+      <c r="E76" s="3">
         <v>751900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>816500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>798600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>789200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>760500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>758700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>753100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>736100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>706600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>709900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>706300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>704700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>703800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>703000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>328100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>319900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>312000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>306900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>302700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>298500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>289100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>279800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>281100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E81" s="3">
         <v>18700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5823,7 @@
         <v>1800</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
@@ -5636,10 +5835,10 @@
         <v>1900</v>
       </c>
       <c r="I83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
@@ -5648,25 +5847,25 @@
         <v>1900</v>
       </c>
       <c r="M83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N83" s="3">
         <v>2000</v>
       </c>
       <c r="O83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>1900</v>
       </c>
       <c r="Q83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>600</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E89" s="3">
         <v>16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,73 +6391,76 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-400</v>
       </c>
       <c r="S91" s="3">
         <v>-400</v>
       </c>
       <c r="T91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-500</v>
       </c>
       <c r="W91" s="3">
         <v>-500</v>
       </c>
       <c r="X91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-186600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-502200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-76400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-190700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-731700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-172200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>143100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-229600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>80000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-90300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-126700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-101600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-83400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-84700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,7 +6728,7 @@
         <v>-2900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2400</v>
+        <v>-2900</v>
       </c>
       <c r="F96" s="3">
         <v>-2400</v>
@@ -6506,10 +6740,10 @@
         <v>-2400</v>
       </c>
       <c r="I96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2000</v>
       </c>
       <c r="K96" s="3">
         <v>-2000</v>
@@ -6518,7 +6752,7 @@
         <v>-2000</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-383800</v>
+      </c>
+      <c r="E100" s="3">
         <v>112400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>330200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>231200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>49700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>371000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>115000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>810500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>77400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>94600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-79200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>72500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>42700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>84700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>122400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>134500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-406500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-146300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>192500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>87000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>201600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>75600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>80700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-171400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>77500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-158500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>159900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>42000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-83000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14200</v>
       </c>
     </row>
